--- a/BAOdev/OntoRatInputFiles/organism_dev.xlsx
+++ b/BAOdev/OntoRatInputFiles/organism_dev.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
   <si>
     <t>Term ID</t>
   </si>
@@ -64,13 +64,64 @@
   </si>
   <si>
     <t>Human Herpes virus 1</t>
+  </si>
+  <si>
+    <t>Acinetobacter</t>
+  </si>
+  <si>
+    <t>http://purl.bioontology.org/ontology/NCBITAXON/469</t>
+  </si>
+  <si>
+    <t>Bacillus anthracis</t>
+  </si>
+  <si>
+    <t>Cavia porcellus</t>
+  </si>
+  <si>
+    <t>guinea pig</t>
+  </si>
+  <si>
+    <t>Clostridium botulinum</t>
+  </si>
+  <si>
+    <t>Cryptococcus neoformans</t>
+  </si>
+  <si>
+    <t>Helicobacter pylori</t>
+  </si>
+  <si>
+    <t>Klebsiella pneumoniae</t>
+  </si>
+  <si>
+    <t>Photuris pennsylvanica</t>
+  </si>
+  <si>
+    <t>NCBITaxon_1392 </t>
+  </si>
+  <si>
+    <t>NCBITaxon_469</t>
+  </si>
+  <si>
+    <t>NCBITaxon_1491</t>
+  </si>
+  <si>
+    <t>NCBITaxon_5207 </t>
+  </si>
+  <si>
+    <t>NCBITaxon_210</t>
+  </si>
+  <si>
+    <t>NCBITaxon_573</t>
+  </si>
+  <si>
+    <t>NCBITaxon_1710587</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -86,6 +137,12 @@
       <u/>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -124,11 +181,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -148,8 +212,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="9">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -480,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -583,12 +659,216 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
     </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>624096</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="12">
+        <v>42557</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5">
+        <v>588501</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5"/>
+      <c r="G5" s="11"/>
+      <c r="H5"/>
+      <c r="I5" s="12">
+        <v>42571</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6">
+        <v>602172</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6"/>
+      <c r="G6" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6"/>
+      <c r="I6" s="12">
+        <v>42552</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>588459</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7"/>
+      <c r="G7" s="11"/>
+      <c r="H7"/>
+      <c r="I7" s="12">
+        <v>42571</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8">
+        <v>651654</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8"/>
+      <c r="G8" s="11"/>
+      <c r="H8"/>
+      <c r="I8" s="12">
+        <v>42560</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9">
+        <v>435030</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9"/>
+      <c r="G9" s="11"/>
+      <c r="H9"/>
+      <c r="I9" s="12">
+        <v>42570</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10">
+        <v>624082</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10"/>
+      <c r="G10" s="11"/>
+      <c r="H10"/>
+      <c r="I10" s="12">
+        <v>42557</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11">
+        <v>588847</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11"/>
+      <c r="G11" s="11"/>
+      <c r="H11"/>
+      <c r="I11" s="12">
+        <v>42572</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E3" location="BAO_0000551" display="http://www.bioassayontology.org/bao#BAO_0000551"/>
     <hyperlink ref="E2" location="BAO_0000551" display="http://www.bioassayontology.org/bao#BAO_0000551"/>
     <hyperlink ref="A2" r:id="rId1" display="http://purl.obolibrary.org/obo/NCBITaxon_10029"/>
     <hyperlink ref="A3" r:id="rId2" display="http://purl.obolibrary.org/obo/NCBITaxon_10298"/>
+    <hyperlink ref="E4" location="BAO_0000551" display="http://www.bioassayontology.org/bao#BAO_0000551"/>
+    <hyperlink ref="E5" location="BAO_0000551" display="http://www.bioassayontology.org/bao#BAO_0000551"/>
+    <hyperlink ref="E6" location="BAO_0000551" display="http://www.bioassayontology.org/bao#BAO_0000551"/>
+    <hyperlink ref="E7" location="BAO_0000551" display="http://www.bioassayontology.org/bao#BAO_0000551"/>
+    <hyperlink ref="E8" location="BAO_0000551" display="http://www.bioassayontology.org/bao#BAO_0000551"/>
+    <hyperlink ref="E9" location="BAO_0000551" display="http://www.bioassayontology.org/bao#BAO_0000551"/>
+    <hyperlink ref="E10" location="BAO_0000551" display="http://www.bioassayontology.org/bao#BAO_0000551"/>
+    <hyperlink ref="E11" location="BAO_0000551" display="http://www.bioassayontology.org/bao#BAO_0000551"/>
+    <hyperlink ref="A5" r:id="rId3" display="http://purl.obolibrary.org/obo/NCBITaxon_1392 "/>
+    <hyperlink ref="A4" r:id="rId4" display="http://purl.obolibrary.org/obo/NCBITaxon_10298"/>
+    <hyperlink ref="A7" r:id="rId5" display="NCBITaxon_1491 ("/>
+    <hyperlink ref="A8" r:id="rId6"/>
+    <hyperlink ref="A9" r:id="rId7"/>
+    <hyperlink ref="A10" r:id="rId8"/>
+    <hyperlink ref="A6" r:id="rId9"/>
+    <hyperlink ref="A11" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
